--- a/DataSheets/registration.xlsx
+++ b/DataSheets/registration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project_REDSight_DBMS_GROUP_1\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F97D09C-9127-4474-8051-EAD21732313E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F416A147-12FA-4F97-A657-B7A14A15FDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A538B417-7E56-491A-B896-2F2DAAE68489}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{A538B417-7E56-491A-B896-2F2DAAE68489}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="6">
   <si>
     <t>RegistrationID</t>
   </si>
@@ -104,7 +104,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -414,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1CADFF-DE72-499C-97D5-28E99DF2D3B4}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -521,7 +532,7 @@
         <v>2020</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -532,7 +543,7 @@
         <v>2020</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -543,7 +554,7 @@
         <v>2020</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -554,7 +565,7 @@
         <v>2020</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -565,7 +576,7 @@
         <v>2020</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -576,7 +587,7 @@
         <v>2020</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -587,7 +598,7 @@
         <v>2020</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -598,7 +609,7 @@
         <v>2020</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -609,7 +620,7 @@
         <v>2020</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -620,7 +631,7 @@
         <v>2020</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -631,7 +642,7 @@
         <v>2020</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -675,7 +686,7 @@
         <v>2020</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -686,7 +697,7 @@
         <v>2020</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -697,7 +708,7 @@
         <v>2020</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -708,7 +719,7 @@
         <v>2020</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -719,7 +730,7 @@
         <v>2020</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -730,7 +741,7 @@
         <v>2020</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -741,7 +752,7 @@
         <v>2020</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -752,7 +763,7 @@
         <v>2020</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -763,7 +774,7 @@
         <v>2020</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -774,7 +785,7 @@
         <v>2020</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -917,127 +928,6 @@
         <v>2020</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>20200045</v>
-      </c>
-      <c r="B46" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>20200046</v>
-      </c>
-      <c r="B47" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>20200047</v>
-      </c>
-      <c r="B48" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>20200048</v>
-      </c>
-      <c r="B49" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>20200049</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>20200050</v>
-      </c>
-      <c r="B51" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>20200051</v>
-      </c>
-      <c r="B52" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>20200052</v>
-      </c>
-      <c r="B53" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>20200053</v>
-      </c>
-      <c r="B54" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>20200054</v>
-      </c>
-      <c r="B55" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>20200055</v>
-      </c>
-      <c r="B56" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C56" s="1" t="s">
         <v>5</v>
       </c>
     </row>
